--- a/companies/trendyol/inCarPhoneHolder/inCarPhoneHolder.xlsx
+++ b/companies/trendyol/inCarPhoneHolder/inCarPhoneHolder.xlsx
@@ -224,7 +224,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -441,6 +441,16 @@
       <sz val="14.0"/>
       <color indexed="8"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="8"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -554,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -730,7 +740,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="true"/>
     </xf>
@@ -751,6 +761,14 @@
       <protection locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="true"/>
     </xf>
@@ -1235,6 +1253,11 @@
           <t>Türü</t>
         </is>
       </c>
+      <c r="AB1" s="50" t="inlineStr">
+        <is>
+          <t>Materyal</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="D2" t="inlineStr">
@@ -1249,7 +1272,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="26">
+  <dataValidations count="27">
     <dataValidation type="list" sqref="X2:X1048576" allowBlank="true" errorStyle="stop" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
       <formula1>Urun_Ozellik_Bilgileri!$A$2:$A$5</formula1>
     </dataValidation>
@@ -1259,14 +1282,17 @@
     <dataValidation type="list" sqref="AA2:AA1048576" allowBlank="true" errorStyle="stop" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
       <formula1>Urun_Ozellik_Bilgileri!$C$2:$C$6</formula1>
     </dataValidation>
+    <dataValidation type="list" sqref="AB2:AB1048576" allowBlank="true" errorStyle="stop" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
+      <formula1>Urun_Ozellik_Bilgileri!$D$2:$D$386</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="E2:E1048576" allowBlank="true" errorStyle="stop" promptTitle="PARA BİRİMİ GİRİN" prompt="Ürün fiyatının para birimi değerini girin." showInputMessage="true" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
-      <formula1>Urun_Ozellik_Bilgileri!$D$2:$D$2</formula1>
+      <formula1>Urun_Ozellik_Bilgileri!$E$2:$E$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1048576" allowBlank="true" errorStyle="stop" promptTitle="KDV ORANI GİRİN" prompt="KDV değerini listeden seçiniz." showInputMessage="true">
-      <formula1>Urun_Ozellik_Bilgileri!$E$2:$E$5</formula1>
+      <formula1>Urun_Ozellik_Bilgileri!$F$2:$F$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="W2:W1048576" allowBlank="true" errorStyle="stop" promptTitle="SEVKİYAT TİPİ GİRİN" prompt="Sevkiyat tipini listeden seçiniz." showInputMessage="true" errorTitle="DEĞER SEÇİMİ HATASI" error="Sadece izin verilen değerleri girebilirsiniz. Lütfen kontrol ediniz." showErrorMessage="true">
-      <formula1>Urun_Ozellik_Bilgileri!$F$2:$F$3</formula1>
+      <formula1>Urun_Ozellik_Bilgileri!$G$2:$G$3</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="between" sqref="V2:V1048576" allowBlank="true" errorStyle="stop" promptTitle="SEVKİYAT SÜRESİ GİRİN" prompt="Sadece sayı girebilirsiniz. ÖRNEK: 5" showInputMessage="true" errorTitle="SEVKİYAT SÜRESİ HATASI" error="Sevkiyat süresi değeri sadece sayı olmalıdır." showErrorMessage="true">
       <formula1>0</formula1>
@@ -1350,32 +1376,37 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="50" t="inlineStr">
+      <c r="A1" s="51" t="inlineStr">
         <is>
           <t>Telefon Tutucu Özellikleri</t>
         </is>
       </c>
-      <c r="B1" s="51" t="inlineStr">
+      <c r="B1" s="52" t="inlineStr">
         <is>
           <t>Garanti Süresi</t>
         </is>
       </c>
-      <c r="C1" s="52" t="inlineStr">
+      <c r="C1" s="53" t="inlineStr">
         <is>
           <t>Türü</t>
         </is>
       </c>
-      <c r="D1" s="53" t="inlineStr">
+      <c r="D1" s="54" t="inlineStr">
+        <is>
+          <t>Materyal</t>
+        </is>
+      </c>
+      <c r="E1" s="55" t="inlineStr">
         <is>
           <t>Para Birimi</t>
         </is>
       </c>
-      <c r="E1" s="54" t="inlineStr">
+      <c r="F1" s="56" t="inlineStr">
         <is>
           <t>KDV Oranı</t>
         </is>
       </c>
-      <c r="F1" s="55" t="inlineStr">
+      <c r="G1" s="57" t="inlineStr">
         <is>
           <t>Sevkiyat Tipi</t>
         </is>
@@ -1399,15 +1430,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>%100 Akrilik</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>TRY</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Hızlı Teslimat</t>
         </is>
@@ -1429,12 +1465,17 @@
           <t>Direksiyon</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>%100 Çam</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Bugün Kargoda</t>
         </is>
@@ -1456,7 +1497,12 @@
           <t>Havalandırma</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>%100 Keten</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1478,7 +1524,12 @@
           <t>Torpido Üstü</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>%100 Organik Pamuk</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1495,6 +1546,11 @@
           <t>Vantuzlu</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>%100 Pamuk</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -1502,11 +1558,2667 @@
           <t>6 Ay</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>%100 Pişmiş Toprak</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
           <t>Belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>%100 Viskoz</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>%1 Akrilik, %96 Pamuk, %2 Polyester, %1 Viskon</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>%50 Bambu %50 Silikon</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>%50 Silikon</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>%60 Keten %40 Pamuk</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>%70 Ahşap, %5 Keten, %25 Metal</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>%80 Pamuk %20 Rejene</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>%98 Pamuk %2 Likra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2 İplik</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2 İplik Şardonlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3 İplik</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3 İplik Şardonlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Aerobin</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Ağaç</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ahşap</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Akfil</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Akrilik</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Akrilik - Bambu</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Akrilik - Doğal İplik</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Akrilik Karışımlı</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Akrilik - Pamuk</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Akrilik - Polyester</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Alçı</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Aloevera</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Altın</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Altın Kaplama</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Alüminyum</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Asetat</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Ateş Kehribar</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Baby Face</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Bakır</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Balıksırtı</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Bambu</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Bambu + Polyester</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Bambu - İpek</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Bambu-Pamuk</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Belmando</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Beton</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Beyaz Altın</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Bio Diamond</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Bio Granit</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Boncuk</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Bone China</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Boyalı</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Boynuz</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Brode</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Bronz</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Bubble Saten</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Bürümcük</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Cam</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Caz</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Ceviz Ağacı</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Compact</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Cotonel</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Crinkle</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Cupro Karışımlı</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Çam</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Çelik</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Çini</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Çinko</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Çömlek</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Çubuk Malzeme</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Dalgıç/Scuba</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Damla</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Dana Derisi</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Dantel</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Demir</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Denim</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Deniz Çimi</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Deniz Sazı</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Deri</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Dobby</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Doğal Taş</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Dokuma</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Dolomite</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Double Face</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Döküm</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Elastan</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Elastan-Viskon-Polyester</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Elastodiyen</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Elyaf</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Emaye</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Epoksi</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>EVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>EVA / PVC</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Ferforje</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Fibre</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Fine Cream</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Finike</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Flamlı Pamuk</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Flanel</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Floş</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Gabardin</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Galvaniz</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Gauze</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Gore</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Grafit</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Granit</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Granit Döküm</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Granit Kaplama</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Gümüş</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Gümüş Kaplama</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>H.M. Grafit</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Hakiki Deri</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Halat</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Hasır</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Havlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Hindistan Cevizi Kabuğu</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>İnci</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>İnterlok</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>İp</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>İpek</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>İpek / Kaşmir</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>İpek Jakar</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>İpek Krep Saten</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>İpek Modal</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>İpek Tivil</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>İpek Varaklı</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>İpek Vual</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>İpek - Yün</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>İplik</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Jakar</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Jarse</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Jel</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Jüt</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Kabuk</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Kadife</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Kağıt</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Kalın Crep</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Kanguru Derisi</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Kanvas</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Kapitone</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Kapri</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Karbon</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Karbon Çelik</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Karton</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Kaşe</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Kaşkorse</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Kaşmir</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Katelin</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Kauçuk</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Kayadamla</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Kayın</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Kaz Tüyü</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Keçe</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Kehribar Tozu</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Kemik</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Kereste</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Kesik Elyaf</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Keten</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Keten Görünümlü</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Keten Karışımlı</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Keten-Viskon</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Kıl</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Koko</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Kontraplak</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Koshiba</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Köpük</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Krep</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Kristal Taş</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Kroko</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Krom</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Krom Kaplama</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Krom Kaplı Pirinç</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Kroşetalı</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Kuka</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Kumaş</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Kültür İncisi</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Laboratuvar Pırlantası</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Lak Kaplama</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Lazer Kesim</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Led Işıklı</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Likra</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Liyosel</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Lureks</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Lyocell Karışımlı</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Mantar</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Mantar Derisi</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Maroken</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>MDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>MDF &amp; Suntalam</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Medine İpeği</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Melamin</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Membran</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Memory Foam</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Mermer</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Mermerit</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Merserize</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Mesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Metal</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Metalik İplik</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Micro</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Micro-Modal</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Micro Saten</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Mika</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Mikrofiber</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Mikro Petek</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Mikro Saten</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Modal</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Modal-Pamuk</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Mozaik</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Mukavva</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Muline</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Müslin</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Nakışlı / İşlemeli</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Nano Cam</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Nano Film</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Nanometric XT</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Naylon</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Nefes Alabilen Kumaş</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Neopren</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Nikel</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Nonwoven</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Nubuk</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Okyanus İncisi</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Oltu</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Organze</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Ottoman</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Outlast</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Oxford</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Örme</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Pamuk</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Pamuk Akrilik</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Pamuk-Akrilik-Polyester</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Pamuk - Elastan</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Pamuk-Elyaf</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Pamuk-İpek</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Pamuk Keten</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Pamuklu</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Pamuklu Havlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Pamuk - Poliamid</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Pamuk - Polietilen</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Pamuk Polyester</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Pamuk - Polyester - Elastan</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Pamuk Saten</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Pamuk-Saten</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Pamuk Viskon</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Pamuk - Viskon</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Pamuk Viskon Polyester</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Pamuk-Viskon-Polyester</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Pamuk - Yün</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Paper Clay</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Paraşüt</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Paslanmaz Çelik</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Payetli</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Peluş</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Penye</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Percale</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Pike</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Pirinç</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Plain</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Plastik</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Platinyum Kaplama</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Plywood</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Polar</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Poliamid</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Poliamid Karışımlı</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Poliamid Metalik İplik</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Polietilen</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Polikoton</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Polimer Kil</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Polipropilen</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Polipropilen - Polyester</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Poliresin</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Polisaten</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Poliüretan</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Poliviskon</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Polyamid</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Polyester</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Polyester - Elastan</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Polyester Karışımlı</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Polyester - Viskon</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Poly Koton</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Poly Twill</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Polyviskon</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Poly Viskon</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Ponpon Şifon</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Ponpon Viskon</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Poplin</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Porselen</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Poylviskon</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Protect Kaplama</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Protect Tal Plus Kaplama</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>PU</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>PVC-Polyester</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Queen Crep</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Rafya</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Ranforce</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Rattan</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Rayon Karışımlı</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Reçine</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Rigid</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Rodyum</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Rose Gold</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Rugan</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Sac</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Saf İpek</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Sandy</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Saten</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Saten / Tafta</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Seacell</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Sedef</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Selanik</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Seramik</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Seramik Hamuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Sıkıştırılmış Taş</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Sıkma Kehribar</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Sıkma Rozu</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Silikon</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Simli Örme</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Sisal</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Sisal halat</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Spandeks</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Stiren Bütadien Stiren</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Stoneware</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Strafor</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Su Geçirmez</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Su Kabağı</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Suni Deri</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Suni Kürk</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Suntalam</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Süet</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Sünger</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Süprem</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Şardon Akrilik</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Şardonlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Şerpa</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Şifon</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Şimşir</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Şönil</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Tafta</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Taş</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Taşlı</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Taş Tozu</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Tatlı Su İncisi</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Tay Tüyü</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Teflon</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Tekstil</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Tela</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Tericotton</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Termoform</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Terracotta</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Thermolon</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Titanyum</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Toprak</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>TPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Triko</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Tuğla</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Tül</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Tüvit</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Twill</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Vinyl</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Visco</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Viskon</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Viskon Akrilik</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Viskon Karışımlı</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Viskon Polyester</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Viskoz Karışımlı</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Vual</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Waffle</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Wellsoft</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Yonga Levha</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Yoryo Şifon</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Yün</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Yün - Akrilik - Polyester</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Yünlü</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Zamak</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Zamak Kaplama</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Zar kehribar</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Zincir</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Zirkon Taş</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Zirkonyum</t>
         </is>
       </c>
     </row>
